--- a/Challenge/mercadolibre.xlsx
+++ b/Challenge/mercadolibre.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Product name</t>
   </si>
@@ -29,7 +29,34 @@
     <t>194.999</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.ar/apple-iphone-11-128-gb-negro/p/MLA15149567?pdp_filters=category:MLA1055#searchVariation=MLA15149567&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
+    <t>https://www.mercadolibre.com.ar/apple-iphone-11-128-gb-negro/p/MLA15149567?pdp_filters=category:MLA1055#searchVariation=MLA15149567&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A12 128 GB negro 4 GB RAM</t>
+  </si>
+  <si>
+    <t>35.999</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.ar/samsung-galaxy-a12-128-gb-negro-4-gb-ram/p/MLA17418994?pdp_filters=category:MLA1055#searchVariation=MLA17418994&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
+  </si>
+  <si>
+    <t>iPhone 8 64 GB gris espacial</t>
+  </si>
+  <si>
+    <t>98.999</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.ar/iphone-8-64-gb-gris-espacial/p/MLA8752432?pdp_filters=category:MLA1055#searchVariation=MLA8752432&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11 (64 GB) - (PRODUCT)RED</t>
+  </si>
+  <si>
+    <t>176.261</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.ar/apple-iphone-11-64-gb-productred/p/MLA15149566?pdp_filters=category:MLA1055#searchVariation=MLA15149566&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
   </si>
   <si>
     <t>iPhone 11 Pro Max 64 GB Plata</t>
@@ -38,7 +65,7 @@
     <t>249.000</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.ar/iphone-11-pro-max-64-gb-plata/p/MLA15150974?pdp_filters=category:MLA1055#searchVariation=MLA15150974&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
+    <t>https://www.mercadolibre.com.ar/iphone-11-pro-max-64-gb-plata/p/MLA15150974?pdp_filters=category:MLA1055#searchVariation=MLA15150974&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
   </si>
   <si>
     <t>Apple iPhone 12 Pro (128 GB) - Grafito</t>
@@ -47,31 +74,25 @@
     <t>294.999</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.ar/apple-iphone-12-pro-128-gb-grafito/p/MLA16163679?pdp_filters=category:MLA1055#searchVariation=MLA16163679&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 (64 GB) - Verde</t>
-  </si>
-  <si>
-    <t>173.529</t>
-  </si>
-  <si>
-    <t>https://www.mercadolibre.com.ar/apple-iphone-11-64-gb-verde/p/MLA15149563?pdp_filters=category:MLA1055#searchVariation=MLA15149563&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
-  </si>
-  <si>
-    <t>iPhone 8 64 GB gris espacial</t>
-  </si>
-  <si>
-    <t>99.000</t>
-  </si>
-  <si>
-    <t>https://www.mercadolibre.com.ar/iphone-8-64-gb-gris-espacial/p/MLA8752432?pdp_filters=category:MLA1055#searchVariation=MLA8752432&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro - 64 Gb Graphite 4 Gb Ram</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.ar/MLA-859691538-iphone-11-pro-64-gb-graphite-4-gb-ram-_JM?searchVariation=57219760238#searchVariation=57219760238&amp;position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
+    <t>https://www.mercadolibre.com.ar/apple-iphone-12-pro-128-gb-grafito/p/MLA16163679?pdp_filters=category:MLA1055#searchVariation=MLA16163679&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
+  </si>
+  <si>
+    <t>Apple iPhone SE (2da generación) 64 GB - Blanco</t>
+  </si>
+  <si>
+    <t>129.999</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.ar/apple-iphone-se-2da-generacion-64-gb-blanco/p/MLA15591332?pdp_filters=category:MLA1055#searchVariation=MLA15591332&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max 256 GB Oro</t>
+  </si>
+  <si>
+    <t>269.000</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.ar/iphone-11-pro-max-256-gb-oro/p/MLA15150976?pdp_filters=category:MLA1055#searchVariation=MLA15150976&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
   </si>
   <si>
     <t>Apple iPhone 11 (256 GB) - Blanco</t>
@@ -80,34 +101,16 @@
     <t>250.000</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.ar/apple-iphone-11-256-gb-blanco/p/MLA15149574?pdp_filters=category:MLA1055#searchVariation=MLA15149574&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro Max 256 GB Oro</t>
-  </si>
-  <si>
-    <t>269.000</t>
-  </si>
-  <si>
-    <t>https://www.mercadolibre.com.ar/iphone-11-pro-max-256-gb-oro/p/MLA15150976?pdp_filters=category:MLA1055#searchVariation=MLA15150976&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
-  </si>
-  <si>
-    <t>iPhone 12 Pro 256gb Caja Sellada Garantía Apple</t>
-  </si>
-  <si>
-    <t>389.500</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.ar/MLA-871664484-iphone-12-pro-256gb-caja-sellada-garantia-apple-_JM?searchVariation=61301583923#searchVariation=61301583923&amp;position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
-  </si>
-  <si>
-    <t>iPhone 11 128 Gb Blanco Original</t>
-  </si>
-  <si>
-    <t>196.999</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.ar/MLA-921855917-iphone-11-128-gb-blanco-original-_JM?searchVariation=85518470494#searchVariation=85518470494&amp;position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=56c06e82-52d2-4a26-aada-afad6fa8378a</t>
+    <t>https://www.mercadolibre.com.ar/apple-iphone-11-256-gb-blanco/p/MLA15149574?pdp_filters=category:MLA1055#searchVariation=MLA15149574&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G 128 GB phantom gray 8 GB RAM</t>
+  </si>
+  <si>
+    <t>133.999</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.ar/samsung-galaxy-s21-5g-128-gb-phantom-gray-8-gb-ram/p/MLA17331535?pdp_filters=category:MLA1055#searchVariation=MLA17331535&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=3791c0fb-5b86-4d7e-a115-0e4a5f40b2ad</t>
   </si>
 </sst>
 </file>
@@ -229,54 +232,54 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
